--- a/Result/LSTM Multi/Manufacturing/CHN.xlsx
+++ b/Result/LSTM Multi/Manufacturing/CHN.xlsx
@@ -524,7 +524,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>31.18872261047363</v>
+        <v>31.16081047058105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -532,7 +532,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>31.29631805419922</v>
+        <v>31.28963088989258</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -540,7 +540,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>31.0783519744873</v>
+        <v>31.02831840515137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>30.7635326385498</v>
+        <v>30.58682060241699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -556,7 +556,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>30.36672019958496</v>
+        <v>30.19740867614746</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>30.9115047454834</v>
+        <v>30.95259284973145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -758,7 +758,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>30.99723815917969</v>
+        <v>30.95708084106445</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -766,7 +766,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>30.98878479003906</v>
+        <v>30.99964714050293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -774,7 +774,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>31.10184478759766</v>
+        <v>31.23621559143066</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -782,7 +782,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>31.45039939880371</v>
+        <v>31.58769798278809</v>
       </c>
     </row>
   </sheetData>
